--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Col3a1-Ddr2.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H2">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I2">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J2">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N2">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O2">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P2">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q2">
-        <v>72.24628779112275</v>
+        <v>223.385116906624</v>
       </c>
       <c r="R2">
-        <v>288.985151164491</v>
+        <v>893.5404676264959</v>
       </c>
       <c r="S2">
-        <v>0.000642025714202079</v>
+        <v>0.001995237672653663</v>
       </c>
       <c r="T2">
-        <v>0.0003353668706649365</v>
+        <v>0.001058615389391179</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H3">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I3">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J3">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>171.99239</v>
       </c>
       <c r="O3">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P3">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q3">
-        <v>1178.439140612465</v>
+        <v>1357.706837374863</v>
       </c>
       <c r="R3">
-        <v>7070.634843674789</v>
+        <v>8146.241024249181</v>
       </c>
       <c r="S3">
-        <v>0.01047234749393404</v>
+        <v>0.0121268053479236</v>
       </c>
       <c r="T3">
-        <v>0.008205462016240245</v>
+        <v>0.009651198156550312</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H4">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I4">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J4">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -685,28 +685,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N4">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O4">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P4">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q4">
-        <v>1.6397815468875</v>
+        <v>0.7121408506510001</v>
       </c>
       <c r="R4">
-        <v>9.838689281324999</v>
+        <v>4.272845103906</v>
       </c>
       <c r="S4">
-        <v>1.457212475497181E-05</v>
+        <v>6.360720325197133E-06</v>
       </c>
       <c r="T4">
-        <v>1.141778538595049E-05</v>
+        <v>5.06222129535425E-06</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H5">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I5">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J5">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N5">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O5">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P5">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q5">
-        <v>572.9072365654636</v>
+        <v>757.9812679263365</v>
       </c>
       <c r="R5">
-        <v>2291.628946261854</v>
+        <v>3031.925071705346</v>
       </c>
       <c r="S5">
-        <v>0.005091212143534899</v>
+        <v>0.006770159095086835</v>
       </c>
       <c r="T5">
-        <v>0.002659432241885575</v>
+        <v>0.003592050563657155</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H6">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I6">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J6">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N6">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O6">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P6">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q6">
-        <v>73.23079050090399</v>
+        <v>1.023677310706</v>
       </c>
       <c r="R6">
-        <v>439.384743005424</v>
+        <v>6.142063864235999</v>
       </c>
       <c r="S6">
-        <v>0.0006507746212353184</v>
+        <v>9.14331072385259E-06</v>
       </c>
       <c r="T6">
-        <v>0.0005099053902453679</v>
+        <v>7.276764248378264E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.5550805</v>
+        <v>23.681981</v>
       </c>
       <c r="H7">
-        <v>41.110161</v>
+        <v>47.363962</v>
       </c>
       <c r="I7">
-        <v>0.01692986717097462</v>
+        <v>0.02091235507862587</v>
       </c>
       <c r="J7">
-        <v>0.01176776206024777</v>
+        <v>0.01431790297832007</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N7">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O7">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P7">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q7">
-        <v>6.6318843208265</v>
+        <v>0.5204904724116667</v>
       </c>
       <c r="R7">
-        <v>39.791305924959</v>
+        <v>3.12294283447</v>
       </c>
       <c r="S7">
-        <v>5.89350733133085E-05</v>
+        <v>4.648931912716271E-06</v>
       </c>
       <c r="T7">
-        <v>4.617775582569231E-05</v>
+        <v>3.699883177692599E-06</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>3127.850708</v>
       </c>
       <c r="I8">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J8">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N8">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O8">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P8">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q8">
-        <v>3664.553919209658</v>
+        <v>9834.696628251477</v>
       </c>
       <c r="R8">
-        <v>21987.32351525795</v>
+        <v>59008.17976950886</v>
       </c>
       <c r="S8">
-        <v>0.03256551885426702</v>
+        <v>0.08784182887174896</v>
       </c>
       <c r="T8">
-        <v>0.02551625871397259</v>
+        <v>0.06990949986842093</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>3127.850708</v>
       </c>
       <c r="I9">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J9">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>171.99239</v>
       </c>
       <c r="O9">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P9">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q9">
         <v>59774.05764801245</v>
@@ -1013,10 +1013,10 @@
         <v>537966.5188321121</v>
       </c>
       <c r="S9">
-        <v>0.5311896738995765</v>
+        <v>0.5338916635011943</v>
       </c>
       <c r="T9">
-        <v>0.6243094055740663</v>
+        <v>0.6373518116371722</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>3127.850708</v>
       </c>
       <c r="I10">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J10">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1057,28 +1057,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N10">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O10">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P10">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q10">
-        <v>83.17476341023333</v>
+        <v>31.35253288008933</v>
       </c>
       <c r="R10">
-        <v>748.5728706921</v>
+        <v>282.172795920804</v>
       </c>
       <c r="S10">
-        <v>0.0007391429859542979</v>
+        <v>0.0002800354634262205</v>
       </c>
       <c r="T10">
-        <v>0.0008687177873917179</v>
+        <v>0.0003343021105946851</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>3127.850708</v>
       </c>
       <c r="I11">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J11">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N11">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O11">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P11">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q11">
-        <v>29059.61708606312</v>
+        <v>33370.69149091496</v>
       </c>
       <c r="R11">
-        <v>174357.7025163787</v>
+        <v>200224.1489454898</v>
       </c>
       <c r="S11">
-        <v>0.2582419385762696</v>
+        <v>0.298061311098932</v>
       </c>
       <c r="T11">
-        <v>0.2023418740846046</v>
+        <v>0.2372140636948157</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>3127.850708</v>
       </c>
       <c r="I12">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J12">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N12">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O12">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P12">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q12">
-        <v>3714.490924610297</v>
+        <v>45.06815823466933</v>
       </c>
       <c r="R12">
-        <v>33430.41832149267</v>
+        <v>405.6134241120239</v>
       </c>
       <c r="S12">
-        <v>0.03300929032734466</v>
+        <v>0.0004025410841695255</v>
       </c>
       <c r="T12">
-        <v>0.03879595450604025</v>
+        <v>0.0004805474720683003</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>3127.850708</v>
       </c>
       <c r="I13">
-        <v>0.8587349328240113</v>
+        <v>0.9206820527194258</v>
       </c>
       <c r="J13">
-        <v>0.8953456273674414</v>
+        <v>0.9455345599638336</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N13">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O13">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P13">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q13">
-        <v>336.3895699374058</v>
+        <v>22.91498182577556</v>
       </c>
       <c r="R13">
-        <v>3027.506129436652</v>
+        <v>206.23483643198</v>
       </c>
       <c r="S13">
-        <v>0.002989368180599178</v>
+        <v>0.000204672699954639</v>
       </c>
       <c r="T13">
-        <v>0.003513416701365942</v>
+        <v>0.000244335180761759</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H14">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I14">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J14">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N14">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O14">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P14">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q14">
-        <v>2.876800414095</v>
+        <v>1.221308783104</v>
       </c>
       <c r="R14">
-        <v>17.26080248457</v>
+        <v>7.327852698624</v>
       </c>
       <c r="S14">
-        <v>2.556504834983545E-05</v>
+        <v>1.090852124678698E-05</v>
       </c>
       <c r="T14">
-        <v>2.003113755530249E-05</v>
+        <v>8.681618705598084E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H15">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I15">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J15">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>171.99239</v>
       </c>
       <c r="O15">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P15">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q15">
-        <v>46.9246837637</v>
+        <v>7.422962229213334</v>
       </c>
       <c r="R15">
-        <v>422.3221538733</v>
+        <v>66.80666006292</v>
       </c>
       <c r="S15">
-        <v>0.0004170020983527687</v>
+        <v>6.630062954732363E-05</v>
       </c>
       <c r="T15">
-        <v>0.0004901042790130994</v>
+        <v>7.91486910987836E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H16">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I16">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J16">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1429,28 +1429,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N16">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O16">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P16">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q16">
-        <v>0.06529503975000001</v>
+        <v>0.003893472796</v>
       </c>
       <c r="R16">
-        <v>0.58765535775</v>
+        <v>0.03504125516400001</v>
       </c>
       <c r="S16">
-        <v>5.802525750603057E-07</v>
+        <v>3.477583335723578E-08</v>
       </c>
       <c r="T16">
-        <v>6.819732348321343E-07</v>
+        <v>4.151486510591873E-08</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H17">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I17">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J17">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N17">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O17">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P17">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q17">
-        <v>22.81279531143</v>
+        <v>4.144095151754001</v>
       </c>
       <c r="R17">
-        <v>136.87677186858</v>
+        <v>24.86457091052401</v>
       </c>
       <c r="S17">
-        <v>0.0002027287719628186</v>
+        <v>3.70143493905963E-05</v>
       </c>
       <c r="T17">
-        <v>0.0001588453055920353</v>
+        <v>2.945811451204655E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H18">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I18">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J18">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N18">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O18">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P18">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q18">
-        <v>2.91600267472</v>
+        <v>0.005596729575999999</v>
       </c>
       <c r="R18">
-        <v>26.24402407248</v>
+        <v>0.050370566184</v>
       </c>
       <c r="S18">
-        <v>2.591342416464367E-05</v>
+        <v>4.998903171493711E-08</v>
       </c>
       <c r="T18">
-        <v>3.045615385903727E-05</v>
+        <v>5.967615174315595E-08</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8184900000000001</v>
+        <v>0.129476</v>
       </c>
       <c r="H19">
-        <v>2.45547</v>
+        <v>0.3884280000000001</v>
       </c>
       <c r="I19">
-        <v>0.0006741363518751979</v>
+        <v>0.0001143336820581084</v>
       </c>
       <c r="J19">
-        <v>0.0007028770017727877</v>
+        <v>0.0001174199577742865</v>
       </c>
       <c r="K19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N19">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O19">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P19">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q19">
-        <v>0.26407734077</v>
+        <v>0.002845666686666667</v>
       </c>
       <c r="R19">
-        <v>2.37669606693</v>
+        <v>0.02561100018</v>
       </c>
       <c r="S19">
-        <v>2.346756470071225E-06</v>
+        <v>2.541700832928005E-08</v>
       </c>
       <c r="T19">
-        <v>2.75815251848108E-06</v>
+        <v>3.034244100915335E-08</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H20">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I20">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J20">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N20">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O20">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P20">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q20">
-        <v>451.234192006413</v>
+        <v>618.9120636147198</v>
       </c>
       <c r="R20">
-        <v>1804.936768025652</v>
+        <v>2475.648254458879</v>
       </c>
       <c r="S20">
-        <v>0.0040099493448425</v>
+        <v>0.005528016738465587</v>
       </c>
       <c r="T20">
-        <v>0.002094626638087367</v>
+        <v>0.002933005762851547</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H21">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I21">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J21">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>171.99239</v>
       </c>
       <c r="O21">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P21">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q21">
-        <v>7360.267907195313</v>
+        <v>3761.670213932566</v>
       </c>
       <c r="R21">
-        <v>44161.60744317187</v>
+        <v>22570.0212835954</v>
       </c>
       <c r="S21">
-        <v>0.06540794557497465</v>
+        <v>0.0335985952281446</v>
       </c>
       <c r="T21">
-        <v>0.05124948472982212</v>
+        <v>0.02673966399436528</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H22">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I22">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J22">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K22">
         <v>1</v>
@@ -1801,28 +1801,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N22">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O22">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P22">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q22">
-        <v>10.24170962965</v>
+        <v>1.97306145353</v>
       </c>
       <c r="R22">
-        <v>61.4502577779</v>
+        <v>11.83836872118</v>
       </c>
       <c r="S22">
-        <v>9.101423949472885E-05</v>
+        <v>1.762304757388747E-05</v>
       </c>
       <c r="T22">
-        <v>7.131293967695129E-05</v>
+        <v>1.40254188451226E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H23">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I23">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J23">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N23">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O23">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P23">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q23">
-        <v>3578.250757099922</v>
+        <v>2100.067171931095</v>
       </c>
       <c r="R23">
-        <v>14313.00302839969</v>
+        <v>8400.26868772438</v>
       </c>
       <c r="S23">
-        <v>0.03179857496018628</v>
+        <v>0.01875744093681788</v>
       </c>
       <c r="T23">
-        <v>0.01661022033869114</v>
+        <v>0.009952155531877982</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H24">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I24">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J24">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N24">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O24">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P24">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q24">
-        <v>457.3831762429546</v>
+        <v>2.836206125179999</v>
       </c>
       <c r="R24">
-        <v>2744.299057457728</v>
+        <v>17.01723675108</v>
       </c>
       <c r="S24">
-        <v>0.004064593065880414</v>
+        <v>2.533250821152805E-05</v>
       </c>
       <c r="T24">
-        <v>0.003184755283652859</v>
+        <v>2.016104402910676E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>128.382446</v>
+        <v>65.61342999999999</v>
       </c>
       <c r="H25">
-        <v>256.764892</v>
+        <v>131.22686</v>
       </c>
       <c r="I25">
-        <v>0.1057401725021131</v>
+        <v>0.0579398888161663</v>
       </c>
       <c r="J25">
-        <v>0.07349881588839352</v>
+        <v>0.03966926266914898</v>
       </c>
       <c r="K25">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N25">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O25">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P25">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q25">
-        <v>41.42126958329133</v>
+        <v>1.442073835683333</v>
       </c>
       <c r="R25">
-        <v>248.527617499748</v>
+        <v>8.652443014099997</v>
       </c>
       <c r="S25">
-        <v>0.0003680953167345596</v>
+        <v>1.288035695281468E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002884159584630733</v>
+        <v>1.025091717993148E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H26">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I26">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J26">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N26">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O26">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P26">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q26">
-        <v>71.8546603174335</v>
+        <v>1.512244816810667</v>
       </c>
       <c r="R26">
-        <v>431.127961904601</v>
+        <v>9.073468900863999</v>
       </c>
       <c r="S26">
-        <v>0.0006385454674491465</v>
+        <v>1.350711215929895E-05</v>
       </c>
       <c r="T26">
-        <v>0.000500323407128276</v>
+        <v>1.07497244519114E-05</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H27">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I27">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J27">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>171.99239</v>
       </c>
       <c r="O27">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P27">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q27">
-        <v>1172.051142590077</v>
+        <v>9.191235101068889</v>
       </c>
       <c r="R27">
-        <v>10548.46028331069</v>
+        <v>82.72111590962</v>
       </c>
       <c r="S27">
-        <v>0.01041557974685612</v>
+        <v>8.209454052185136E-05</v>
       </c>
       <c r="T27">
-        <v>0.01224147365804848</v>
+        <v>9.800322369522474E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H28">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I28">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J28">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K28">
         <v>1</v>
@@ -2173,28 +2173,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M28">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N28">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O28">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P28">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q28">
-        <v>1.630892737175</v>
+        <v>0.004820962672666667</v>
       </c>
       <c r="R28">
-        <v>14.678034634575</v>
+        <v>0.043388664054</v>
       </c>
       <c r="S28">
-        <v>1.449313323058271E-05</v>
+        <v>4.306001436515753E-08</v>
       </c>
       <c r="T28">
-        <v>1.703383901585677E-05</v>
+        <v>5.140439538759424E-08</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H29">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I29">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J29">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N29">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O29">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P29">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q29">
-        <v>569.801662278199</v>
+        <v>5.131287435502334</v>
       </c>
       <c r="R29">
-        <v>3418.809973669194</v>
+        <v>30.787724613014</v>
       </c>
       <c r="S29">
-        <v>0.005063614067415705</v>
+        <v>4.583178209141054E-05</v>
       </c>
       <c r="T29">
-        <v>0.003967524274681123</v>
+        <v>3.64755265827512E-05</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H30">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I30">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J30">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N30">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O30">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P30">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q30">
-        <v>72.83382630582932</v>
+        <v>0.006929963502666666</v>
       </c>
       <c r="R30">
-        <v>655.504436752464</v>
+        <v>0.06236967152399999</v>
       </c>
       <c r="S30">
-        <v>0.0006472469490372352</v>
+        <v>6.189724920848323E-08</v>
       </c>
       <c r="T30">
-        <v>0.000760711997743875</v>
+        <v>7.389200209584479E-08</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>20.443657</v>
+        <v>0.1603193333333333</v>
       </c>
       <c r="H31">
-        <v>61.330971</v>
+        <v>0.480958</v>
       </c>
       <c r="I31">
-        <v>0.01683809496630118</v>
+        <v>0.0001415698637979334</v>
       </c>
       <c r="J31">
-        <v>0.01755595833477656</v>
+        <v>0.0001453913416417078</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N31">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O31">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P31">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q31">
-        <v>6.595934679927666</v>
+        <v>0.003523551747777778</v>
       </c>
       <c r="R31">
-        <v>59.36341211934899</v>
+        <v>0.03171196573</v>
       </c>
       <c r="S31">
-        <v>5.861560231238854E-05</v>
+        <v>3.147176179892767E-08</v>
       </c>
       <c r="T31">
-        <v>6.889115815894314E-05</v>
+        <v>3.757051433696946E-08</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H32">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I32">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J32">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.5147655</v>
+        <v>9.432703999999999</v>
       </c>
       <c r="N32">
-        <v>7.029531</v>
+        <v>18.865408</v>
       </c>
       <c r="O32">
-        <v>0.03792266694819667</v>
+        <v>0.0954095158174202</v>
       </c>
       <c r="P32">
-        <v>0.0284987807323048</v>
+        <v>0.07393648294684749</v>
       </c>
       <c r="Q32">
-        <v>4.620709896345001</v>
+        <v>2.241075268309333</v>
       </c>
       <c r="R32">
-        <v>27.72425937807</v>
+        <v>13.446451609856</v>
       </c>
       <c r="S32">
-        <v>4.106251908608149E-05</v>
+        <v>2.0016901145891E-05</v>
       </c>
       <c r="T32">
-        <v>3.217396489632794E-05</v>
+        <v>1.593058302631626E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H33">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I33">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J33">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>171.99239</v>
       </c>
       <c r="O33">
-        <v>0.6185723365797188</v>
+        <v>0.5798871194721721</v>
       </c>
       <c r="P33">
-        <v>0.6972831345697248</v>
+        <v>0.6740650618434832</v>
       </c>
       <c r="Q33">
-        <v>75.37031404314445</v>
+        <v>13.62097554658111</v>
       </c>
       <c r="R33">
-        <v>678.3328263883001</v>
+        <v>122.58877991923</v>
       </c>
       <c r="S33">
-        <v>0.0006697877660245775</v>
+        <v>0.0001216602248402838</v>
       </c>
       <c r="T33">
-        <v>0.0007872043125345835</v>
+        <v>0.0001452361406013359</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H34">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I34">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J34">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K34">
         <v>1</v>
@@ -2545,28 +2545,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M34">
-        <v>0.079775</v>
+        <v>0.030071</v>
       </c>
       <c r="N34">
-        <v>0.239325</v>
+        <v>0.090213</v>
       </c>
       <c r="O34">
-        <v>0.0008607347362981653</v>
+        <v>0.0003041608800769793</v>
       </c>
       <c r="P34">
-        <v>0.0009702597084725632</v>
+        <v>0.0003535588488774774</v>
       </c>
       <c r="Q34">
-        <v>0.1048767355833333</v>
+        <v>0.007144438582333334</v>
       </c>
       <c r="R34">
-        <v>0.94389062025</v>
+        <v>0.06429994724099999</v>
       </c>
       <c r="S34">
-        <v>9.320002885234167E-07</v>
+        <v>6.381290395183483E-08</v>
       </c>
       <c r="T34">
-        <v>1.095383767254698E-06</v>
+        <v>7.617888182185452E-08</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H35">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I35">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J35">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>27.871807</v>
+        <v>32.0066665</v>
       </c>
       <c r="N35">
-        <v>55.74361400000001</v>
+        <v>64.013333</v>
       </c>
       <c r="O35">
-        <v>0.3007236909846238</v>
+        <v>0.3237396777948978</v>
       </c>
       <c r="P35">
-        <v>0.2259930331927174</v>
+        <v>0.2508782584360418</v>
       </c>
       <c r="Q35">
-        <v>36.64185688459668</v>
+        <v>7.604325198180167</v>
       </c>
       <c r="R35">
-        <v>219.85114130758</v>
+        <v>45.625951189081</v>
       </c>
       <c r="S35">
-        <v>0.0003256224652543903</v>
+        <v>6.792053257899338E-05</v>
       </c>
       <c r="T35">
-        <v>0.0002551369472629759</v>
+        <v>5.405500459612274E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H36">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I36">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J36">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M36">
-        <v>3.562661333333333</v>
+        <v>0.04322599999999999</v>
       </c>
       <c r="N36">
-        <v>10.687984</v>
+        <v>0.129678</v>
       </c>
       <c r="O36">
-        <v>0.03843944046714304</v>
+        <v>0.0004372205181805562</v>
       </c>
       <c r="P36">
-        <v>0.04333070193251612</v>
+        <v>0.0005082283529506114</v>
       </c>
       <c r="Q36">
-        <v>4.683676472942222</v>
+        <v>0.01026987802733333</v>
       </c>
       <c r="R36">
-        <v>42.15308825648</v>
+        <v>0.09242890224599999</v>
       </c>
       <c r="S36">
-        <v>4.162207948076323E-05</v>
+        <v>9.172879472654759E-08</v>
       </c>
       <c r="T36">
-        <v>4.891860097473283E-05</v>
+        <v>1.095044509870468E-07</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.314656666666667</v>
+        <v>0.2375856666666667</v>
       </c>
       <c r="H37">
-        <v>3.94397</v>
+        <v>0.712757</v>
       </c>
       <c r="I37">
-        <v>0.001082796184724401</v>
+        <v>0.0002097998399257807</v>
       </c>
       <c r="J37">
-        <v>0.001128959347368048</v>
+        <v>0.0002154630892812235</v>
       </c>
       <c r="K37">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L37">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M37">
-        <v>0.3226396666666667</v>
+        <v>0.02197833333333333</v>
       </c>
       <c r="N37">
-        <v>0.967919</v>
+        <v>0.06593499999999999</v>
       </c>
       <c r="O37">
-        <v>0.003481130284019571</v>
+        <v>0.0002223055172522323</v>
       </c>
       <c r="P37">
-        <v>0.003924089864264305</v>
+        <v>0.0002584095717993689</v>
       </c>
       <c r="Q37">
-        <v>0.4241603887144445</v>
+        <v>0.005221736977222222</v>
       </c>
       <c r="R37">
-        <v>3.81744349843</v>
+        <v>0.04699563279499999</v>
       </c>
       <c r="S37">
-        <v>3.769354590064962E-06</v>
+        <v>4.663966193413621E-08</v>
       </c>
       <c r="T37">
-        <v>4.430137932173404E-06</v>
+        <v>5.567772463973017E-08</v>
       </c>
     </row>
   </sheetData>
